--- a/misc/datasets/20211022_R8_dif_conditions_Medoids_validSet.xlsx
+++ b/misc/datasets/20211022_R8_dif_conditions_Medoids_validSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\gem61066\RT prediction\Medoids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobi\repos\github\spang\fastret\FastRet\misc\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAE60A-A1DE-47E8-8EC2-69DEECE2E88D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAB72B-3EF6-4FCC-876E-0D03125F9DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3B4A33AD-A633-4EB1-BF50-E8D3284E3FCB}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="1" xr2:uid="{3B4A33AD-A633-4EB1-BF50-E8D3284E3FCB}"/>
   </bookViews>
   <sheets>
     <sheet name="R8_RT_Medoids" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -690,9 +701,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,11 +724,104 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -960,96 +1061,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1064,20 +1075,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A48450B8-C810-429D-8837-F53219D4ABF2}" name="Tabelle3562" displayName="Tabelle3562" ref="B2:L27" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A48450B8-C810-429D-8837-F53219D4ABF2}" name="Tabelle3562" displayName="Tabelle3562" ref="B2:L27" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:L27" xr:uid="{6FD49C65-CC1B-4194-BBA5-5746A0437B4F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{5842888F-C283-48E0-BCC6-AB0336E998C6}" name="PLATE" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{32134D23-FB0D-4949-9ED1-7644169C4E1D}" name="NROW" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6E3F18C5-E6A0-46BC-84CE-8579D750FAAD}" name="NCOL" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{819A8E31-07EF-45D4-A5CE-7D1C5D810B28}" name="CNAME" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{889C176C-49A1-4558-B642-DA30DCDBF3D4}" name="SMILES" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3175CC23-65CD-445D-923D-C35C519F4AE1}" name="FORMULA" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{25A767DA-8379-40B5-A7B6-0BFAA9B08E42}" name="M+H" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{68B09917-39F3-4492-AE3F-7E1EC483B487}" name="M-H" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B4914903-CC21-41F0-B177-F61A05B266A7}" name="HMDB" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{46C078FE-4C3A-4092-A4BC-136971E4FB3D}" name="RT" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{5BBEA2C9-53BD-45D8-8E9C-32EA795E3596}" name="Code" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{5842888F-C283-48E0-BCC6-AB0336E998C6}" name="PLATE" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{32134D23-FB0D-4949-9ED1-7644169C4E1D}" name="NROW" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{6E3F18C5-E6A0-46BC-84CE-8579D750FAAD}" name="NCOL" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{819A8E31-07EF-45D4-A5CE-7D1C5D810B28}" name="CNAME" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{889C176C-49A1-4558-B642-DA30DCDBF3D4}" name="SMILES" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{3175CC23-65CD-445D-923D-C35C519F4AE1}" name="FORMULA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{25A767DA-8379-40B5-A7B6-0BFAA9B08E42}" name="M+H" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{68B09917-39F3-4492-AE3F-7E1EC483B487}" name="M-H" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B4914903-CC21-41F0-B177-F61A05B266A7}" name="HMDB" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{46C078FE-4C3A-4092-A4BC-136971E4FB3D}" name="RT" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5BBEA2C9-53BD-45D8-8E9C-32EA795E3596}" name="Code" dataDxfId="9">
       <calculatedColumnFormula>B3&amp;C3&amp;D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1086,9 +1097,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1126,7 +1137,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1232,7 +1243,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1374,7 +1385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1384,64 +1395,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B9321A-EB90-4C2B-B165-F2A5D6F7062C}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="23.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="N2" t="s">
@@ -1460,45 +1471,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>147.07694000000001</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>145.06134</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>1.23</v>
       </c>
-      <c r="L3" s="10" t="str">
+      <c r="L3" s="9" t="str">
         <f t="shared" ref="L3:L27" si="0">B3&amp;C3&amp;D3</f>
         <v>1A2</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>1.2</v>
       </c>
       <c r="N3">
@@ -1517,45 +1528,45 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>269.08856999999995</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>267.07297</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>3.18</v>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1B8</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>2.99</v>
       </c>
       <c r="N4">
@@ -1574,45 +1585,45 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>310.11377999999996</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>308.09818000000001</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>1.4</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>1A8</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>1.4</v>
       </c>
       <c r="N5">
@@ -1631,45 +1642,45 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+    <row r="6" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>135.02933000000002</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>133.01373000000001</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>1.89</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1F4</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>1.9</v>
       </c>
       <c r="N6">
@@ -1688,45 +1699,45 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+    <row r="7" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>308.06473999999997</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>306.04914000000002</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>2.11</v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1F6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>2.0699999999999998</v>
       </c>
       <c r="N7">
@@ -1745,45 +1756,45 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+    <row r="8" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="8">
         <v>137.04631000000001</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>135.03071</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1F7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>2.2599999999999998</v>
       </c>
       <c r="N8">
@@ -1802,45 +1813,45 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>104.07113</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>102.05552999999999</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>1.31</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>1H4</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>1.28</v>
       </c>
       <c r="N9">
@@ -1859,45 +1870,45 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>412.04230999999999</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>410.02671000000004</v>
       </c>
       <c r="J10" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>2.12</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2H4</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>2.09</v>
       </c>
       <c r="N10">
@@ -1916,45 +1927,45 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+    <row r="11" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>139.05073000000002</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>137.03513000000001</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>2.11</v>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2D4</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>2.08</v>
       </c>
       <c r="N11">
@@ -1973,45 +1984,45 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+    <row r="12" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>163.06063</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>161.04503</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>3.14</v>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2E8</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>3.06</v>
       </c>
       <c r="N12">
@@ -2030,45 +2041,45 @@
         <v>3.67</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+    <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>132.15004999999999</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>130.13444999999999</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>0.91</v>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>2A8</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>0.89</v>
       </c>
       <c r="N13">
@@ -2087,45 +2098,45 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>162.11299400000001</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>160.09739400000001</v>
       </c>
       <c r="J14" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>1.22</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3C1</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>1.2</v>
       </c>
       <c r="N14">
@@ -2144,45 +2155,45 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>154.08677</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>152.07117</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>1.48</v>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3C10</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>1.43</v>
       </c>
       <c r="N15">
@@ -2201,45 +2212,45 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>6</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>428.03721899999999</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>426.02161900000004</v>
       </c>
       <c r="J16" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>2.06</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3C6</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>1.98</v>
       </c>
       <c r="N16">
@@ -2258,45 +2269,45 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>3</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>7</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>261.03751</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>259.02191000000005</v>
       </c>
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>1.29</v>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3B7</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>1.27</v>
       </c>
       <c r="N17">
@@ -2315,45 +2326,45 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+    <row r="18" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="8">
         <v>308.09161</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>306.07601000000005</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>2.08</v>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>3H9</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>2.0699999999999998</v>
       </c>
       <c r="N18">
@@ -2372,45 +2383,45 @@
         <v>2.69</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="8">
         <v>173.02146999999999</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>171.00586999999999</v>
       </c>
       <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>1.34</v>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>4H1</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>1.37</v>
       </c>
       <c r="N19">
@@ -2429,45 +2440,45 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+    <row r="20" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>8</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="8">
         <v>195.06571</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>193.05010999999999</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>6.99</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>5D8</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>5.59</v>
       </c>
       <c r="N20">
@@ -2486,45 +2497,45 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+    <row r="21" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>8</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="8">
         <v>168.10243500000001</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>166.08683500000001</v>
       </c>
       <c r="J21" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>3.35</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>5G8</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>3.11</v>
       </c>
       <c r="N21">
@@ -2543,45 +2554,45 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+    <row r="22" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="8">
         <v>138.05548000000002</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>136.03988000000001</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>4.58</v>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>5H1</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>4.09</v>
       </c>
       <c r="N22">
@@ -2600,45 +2611,45 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>11</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>139.0395</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>137.0239</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>8.27</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>6D11</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>6.55</v>
       </c>
       <c r="N23">
@@ -2657,45 +2668,45 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>6</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>8</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="8">
         <v>153.05515</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>151.03954999999999</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>6.06</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>6D8</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>5.01</v>
       </c>
       <c r="N24">
@@ -2714,45 +2725,45 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>8</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="8">
         <v>192.06604000000002</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>190.05044000000001</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>5.47</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>6E8</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>4.62</v>
       </c>
       <c r="N25">
@@ -2771,45 +2782,45 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>6</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>4</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="8">
         <v>181.07119</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>179.05559</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>1.23</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>6G4</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>1.27</v>
       </c>
       <c r="N26">
@@ -2828,45 +2839,45 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>7</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>347.22220999999996</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="12">
         <v>345.20661000000001</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="14">
         <v>10</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>7B10</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>7.57</v>
       </c>
       <c r="N27">
@@ -2890,35 +2901,36 @@
     <mergeCell ref="B1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E27">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2927,17 +2939,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A33D3AA-E2CD-4294-A1B0-EF9B31B57ED7}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>130</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -3111,7 +3129,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -3198,7 +3216,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -3227,7 +3245,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>148</v>
       </c>
@@ -3256,7 +3274,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -3285,7 +3303,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>152</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -3343,7 +3361,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -3372,7 +3390,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3401,7 +3419,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -3430,7 +3448,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>162</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>5.0599999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -3517,7 +3535,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -3606,5 +3624,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>